--- a/testing/testresults.xlsx
+++ b/testing/testresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni Work\Year 4\Hons Project\Hons-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{992DF6D1-FEBC-4636-AEB9-30A01E409F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7E369F-C271-4D15-9577-6BCD41B2C2EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13245"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
     <t>Old Password</t>
   </si>
@@ -34,6 +34,9 @@
     <t>RockYou Wordlist</t>
   </si>
   <si>
+    <t>Probable Wordlist</t>
+  </si>
+  <si>
     <t>Tennents94</t>
   </si>
   <si>
@@ -49,76 +52,124 @@
     <t>Sensa20!9</t>
   </si>
   <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Holidays1</t>
+  </si>
+  <si>
+    <t>Password1994</t>
+  </si>
+  <si>
+    <t>P@ssw0rd1994</t>
+  </si>
+  <si>
+    <t>Happy2020</t>
+  </si>
+  <si>
+    <t>2020Happy</t>
+  </si>
+  <si>
+    <t>Goldsmith</t>
+  </si>
+  <si>
+    <t>Silversmith</t>
+  </si>
+  <si>
+    <t>S0nsname</t>
+  </si>
+  <si>
+    <t>S0nsn@me</t>
+  </si>
+  <si>
+    <t>U11apool000</t>
+  </si>
+  <si>
+    <t>!nv3rn3ss</t>
+  </si>
+  <si>
+    <t>Supernova27</t>
+  </si>
+  <si>
+    <t>Supernov@17</t>
+  </si>
+  <si>
+    <t>Seabike58</t>
+  </si>
+  <si>
+    <t>Landbike58</t>
+  </si>
+  <si>
+    <t>Chester48</t>
+  </si>
+  <si>
+    <t>Chester48!</t>
+  </si>
+  <si>
+    <t>Dundee12</t>
+  </si>
+  <si>
+    <t>Ab3rd33n123</t>
+  </si>
+  <si>
+    <t>Richmond01</t>
+  </si>
+  <si>
+    <t>Richm@nd@1</t>
+  </si>
+  <si>
+    <t>Chestnut16</t>
+  </si>
+  <si>
+    <t>16Chestnut</t>
+  </si>
+  <si>
+    <t>0KiU7FMWbwwn5qXu</t>
+  </si>
+  <si>
+    <t>3ne4^#DxGHERh61D</t>
+  </si>
+  <si>
+    <t>Shakira1</t>
+  </si>
+  <si>
+    <t>Shskira1</t>
+  </si>
+  <si>
+    <t>Winter11</t>
+  </si>
+  <si>
+    <t>Winter_11!</t>
+  </si>
+  <si>
+    <t>Abigail07</t>
+  </si>
+  <si>
+    <t>Evie2018</t>
+  </si>
+  <si>
     <t>BoilTheJug2</t>
   </si>
   <si>
     <t>B0ilTh3Jug1</t>
   </si>
   <si>
-    <t>Holidays</t>
-  </si>
-  <si>
-    <t>Holidays1</t>
-  </si>
-  <si>
-    <t>Password1994</t>
-  </si>
-  <si>
-    <t>P@ssw0rd1994</t>
-  </si>
-  <si>
-    <t>Happy2020</t>
-  </si>
-  <si>
-    <t>2020Happy</t>
-  </si>
-  <si>
-    <t>Goldsmith</t>
-  </si>
-  <si>
-    <t>Silversmith</t>
-  </si>
-  <si>
-    <t>S0nsname</t>
-  </si>
-  <si>
-    <t>S0nsn@me</t>
-  </si>
-  <si>
-    <t>U11apool000</t>
-  </si>
-  <si>
-    <t>!nv3rn3ss</t>
-  </si>
-  <si>
-    <t>Supernova27</t>
-  </si>
-  <si>
-    <t>Supernov@17</t>
-  </si>
-  <si>
-    <t>Seabike58</t>
-  </si>
-  <si>
-    <t>Landbike58</t>
-  </si>
-  <si>
-    <t>Chester48</t>
-  </si>
-  <si>
-    <t>Chester48!</t>
-  </si>
-  <si>
-    <t>log1n12345</t>
-  </si>
-  <si>
-    <t>auth3nticate</t>
-  </si>
-  <si>
-    <t>Dundee12</t>
-  </si>
-  <si>
-    <t>Ab3rd33n123</t>
+    <t>passthebeers</t>
+  </si>
+  <si>
+    <t>passtheciders</t>
+  </si>
+  <si>
+    <t>delicate-housetop-peroxide-guild</t>
+  </si>
+  <si>
+    <t>curtain-profane-cutesy-balk</t>
+  </si>
+  <si>
+    <t>FootballChickenYoutube</t>
+  </si>
+  <si>
+    <t>TigerBananaChair</t>
   </si>
   <si>
     <t>Honda8</t>
@@ -217,10 +268,13 @@
     <t>password123</t>
   </si>
   <si>
-    <t>% Cracked</t>
-  </si>
-  <si>
-    <t>Avg. Attempts</t>
+    <t>Cracked</t>
+  </si>
+  <si>
+    <t>Percentage Cracked (%)</t>
+  </si>
+  <si>
+    <t>Average Attempts</t>
   </si>
 </sst>
 </file>
@@ -1061,21 +1115,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A25" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.9296875" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="4" width="14.9296875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,451 +1142,696 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>2134470</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>275</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>2285</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>14338175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>613</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>4257</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>712</v>
+      </c>
+      <c r="D24">
+        <v>705836</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>446</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>1461</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>971</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>3115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>1124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>412</v>
+      </c>
+      <c r="D31">
+        <v>335911</v>
+      </c>
+      <c r="E31">
+        <v>163983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>8330</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>31970</v>
+      </c>
+      <c r="E33">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>466</v>
+      </c>
+      <c r="D34">
+        <v>6133</v>
+      </c>
+      <c r="E34">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>52563</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>832</v>
+      </c>
+      <c r="D36">
+        <v>298934</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>805</v>
+      </c>
+      <c r="D37">
+        <v>662942</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>305391</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>1383</v>
+      </c>
+      <c r="E39">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42">
+        <f>COUNTIF(C2:C39,"&lt;&gt;NF")</f>
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <f>COUNTIF(D2:D39,"&lt;&gt;NF")</f>
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <f>COUNTIF(E2:E39,"&lt;&gt;NF")</f>
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>547</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2134470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>229</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>2469</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>124</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>14338175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>702</v>
-      </c>
-      <c r="D16">
-        <v>705836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>431</v>
-      </c>
-      <c r="D18">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>1455</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
-        <v>922</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21">
-        <v>3106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22">
-        <v>1103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23">
-        <v>269</v>
-      </c>
-      <c r="D23">
-        <v>335911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>8304</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>31970</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26">
-        <v>430</v>
-      </c>
-      <c r="D26">
-        <v>6133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>52563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
-        <v>789</v>
-      </c>
-      <c r="D28">
-        <v>298934</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29">
-        <v>769</v>
-      </c>
-      <c r="D29">
-        <v>662942</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>305391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33">
-        <f>COUNTIF(C2:C31,"&lt;&gt;NF")/30*100</f>
-        <v>70</v>
-      </c>
-      <c r="D33">
-        <f>COUNTIF(D2:D31,"&lt;&gt;NF")/30*100</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34">
-        <f>ROUND(AVERAGE(C2:C31),0)</f>
-        <v>1044</v>
-      </c>
-      <c r="D34">
-        <f>AVERAGE(D2:D31)</f>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>31.6</v>
+      </c>
+      <c r="E43">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44">
+        <v>1022</v>
+      </c>
+      <c r="D44">
         <v>1572813</v>
+      </c>
+      <c r="E44">
+        <v>34167</v>
       </c>
     </row>
   </sheetData>

--- a/testing/testresults.xlsx
+++ b/testing/testresults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni Work\Year 4\Hons Project\Hons-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7E369F-C271-4D15-9577-6BCD41B2C2EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D59B5F-988F-4D00-A397-EFF650BF35DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13245"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testresults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
   <si>
     <t>Old Password</t>
   </si>
@@ -275,12 +285,18 @@
   </si>
   <si>
     <t>Average Attempts</t>
+  </si>
+  <si>
+    <t>Average % diff between custom and rockyou</t>
+  </si>
+  <si>
+    <t>% more cracked than</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -818,6 +834,1762 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of Attempts Per Wordlist</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testresults!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custom Wordlist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>testresults!$B$2:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>Carlsberg94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensa20!9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Holidays1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P@ssw0rd1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020Happy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Silversmith</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>S0nsn@me</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>!nv3rn3ss</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Supernov@17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Landbike58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Chester48!</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ab3rd33n123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Richm@nd@1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16Chestnut</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3ne4^#DxGHERh61D</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Shskira1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Winter_11!</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Evie2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>B0ilTh3Jug1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>passtheciders</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>curtain-profane-cutesy-balk</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TigerBananaChair</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nissan1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Banana0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>superman</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Und34d</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Scuder1a</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>b1tterly</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1ndycar</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>s1mpsons</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>m1ami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>qwerty12345</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>radiohead</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>corsa1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>monst3r</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>faceb00k</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>jeep1234</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>password123</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>testresults!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4257</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3115</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8330</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28C2-4227-A441-B9958E07971B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testresults!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RockYou Wordlist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>testresults!$B$2:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>Carlsberg94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensa20!9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Holidays1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P@ssw0rd1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020Happy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Silversmith</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>S0nsn@me</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>!nv3rn3ss</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Supernov@17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Landbike58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Chester48!</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ab3rd33n123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Richm@nd@1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16Chestnut</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3ne4^#DxGHERh61D</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Shskira1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Winter_11!</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Evie2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>B0ilTh3Jug1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>passtheciders</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>curtain-profane-cutesy-balk</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TigerBananaChair</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nissan1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Banana0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>superman</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Und34d</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Scuder1a</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>b1tterly</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1ndycar</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>s1mpsons</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>m1ami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>qwerty12345</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>radiohead</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>corsa1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>monst3r</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>faceb00k</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>jeep1234</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>password123</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>testresults!$D$2:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2134470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14338175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>705836</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>335911</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31970</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6133</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52563</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>298934</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>662942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>305391</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28C2-4227-A441-B9958E07971B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>testresults!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Probable Wordlist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>testresults!$B$2:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>Carlsberg94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensa20!9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Holidays1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P@ssw0rd1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020Happy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Silversmith</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>S0nsn@me</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>!nv3rn3ss</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Supernov@17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Landbike58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Chester48!</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ab3rd33n123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Richm@nd@1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16Chestnut</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3ne4^#DxGHERh61D</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Shskira1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Winter_11!</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Evie2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>B0ilTh3Jug1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>passtheciders</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>curtain-profane-cutesy-balk</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TigerBananaChair</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nissan1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Banana0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>superman</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Und34d</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Scuder1a</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>b1tterly</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1ndycar</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>s1mpsons</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>m1ami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>qwerty12345</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>radiohead</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>corsa1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>monst3r</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>faceb00k</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>jeep1234</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>password123</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>testresults!$E$2:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>163983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3386</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2848</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-28C2-4227-A441-B9958E07971B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="500435008"/>
+        <c:axId val="500431400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="500435008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500431400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="500431400"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Attempts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500435008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB1B68D-2F84-4940-8795-A845511F4F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1114,11 +2886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1127,9 +2899,10 @@
     <col min="2" max="2" width="24.796875" customWidth="1"/>
     <col min="3" max="4" width="14.9296875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1145,8 +2918,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +2939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +2956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +2972,12 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <f>SUM(C4/D4*100)</f>
+        <v>1.4523511691426913E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +2994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +3011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1248,7 +3028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +3045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1282,7 +3062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1299,7 +3079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1316,7 +3096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1333,7 +3113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1350,7 +3130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +3147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1384,7 +3164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1401,7 +3181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1418,7 +3198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1435,7 +3215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1452,7 +3232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1469,7 +3249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1486,7 +3266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1503,7 +3283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1520,7 +3300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1536,8 +3316,12 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G24">
+        <f>SUM(C24/D24*100)</f>
+        <v>0.10087329067942129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1554,7 +3338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1570,8 +3354,12 @@
       <c r="E26">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G26">
+        <f>SUM(C26/D26*100)</f>
+        <v>929.16666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1588,7 +3376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1605,7 +3393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1622,7 +3410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1639,7 +3427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1656,7 +3444,7 @@
         <v>163983</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1673,7 +3461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1689,8 +3477,12 @@
       <c r="E33">
         <v>3386</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G33">
+        <f>SUM(C33/D33*100)</f>
+        <v>0.13762902721301218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1707,7 +3499,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1724,7 +3516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1740,8 +3532,12 @@
       <c r="E36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G36">
+        <f>SUM(C36/D36*100)</f>
+        <v>0.27832230525801682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1757,8 +3553,12 @@
       <c r="E37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G37">
+        <f>SUM(C37/D37*100)</f>
+        <v>0.12142842058581294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1775,7 +3575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1791,8 +3591,12 @@
       <c r="E39">
         <v>595</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G39">
+        <f>SUM(C39/D39*100)</f>
+        <v>2.8922631959508314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>82</v>
       </c>
@@ -1808,33 +3612,60 @@
         <f>COUNTIF(E2:E39,"&lt;&gt;NF")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G42">
+        <f>MEDIAN(G2:G39)</f>
+        <v>0.13762902721301218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>83</v>
       </c>
+      <c r="C43">
+        <f>ROUND((C42/38)*100,1)</f>
+        <v>60.5</v>
+      </c>
       <c r="D43">
+        <f>ROUND((D42/38)*100,1)</f>
         <v>31.6</v>
       </c>
       <c r="E43">
+        <f>ROUND((E42/38)*100,1)</f>
         <v>13.2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>84</v>
       </c>
       <c r="C44">
-        <v>1022</v>
+        <f>ROUND(AVERAGE(C2:C39),0)</f>
+        <v>1160</v>
       </c>
       <c r="D44">
+        <f>ROUND(AVERAGE(D2:D39),0)</f>
         <v>1572813</v>
       </c>
       <c r="E44">
+        <f>ROUND(AVERAGE(E2:E39),0)</f>
         <v>34167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46">
+        <f>ROUND(SUM((C42-D42)/38*100),0)</f>
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <f>ROUND(SUM((C42-E42)/38*100),0)</f>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>